--- a/exceltestdata/TC005.xlsx
+++ b/exceltestdata/TC005.xlsx
@@ -8,37 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eclipse\eclipse-workspace\MavenProject\exceltestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4697839-B7E9-447C-8839-EA194F1D2E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8BC206-FF7E-42AF-B076-45E207BD0512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>AccountTitle</t>
   </si>
   <si>
-    <t>VerifyText</t>
-  </si>
-  <si>
     <t>(952)451-6666</t>
   </si>
   <si>
-    <t>(952)464-1089</t>
-  </si>
-  <si>
     <t>BillStreet</t>
   </si>
   <si>
@@ -78,38 +80,79 @@
     <t>India</t>
   </si>
   <si>
-    <t>Srirangam</t>
-  </si>
-  <si>
     <t>BHEL Nagar</t>
   </si>
   <si>
     <t>620014</t>
   </si>
   <si>
-    <t>620006</t>
-  </si>
-  <si>
     <t>K.SANKARAKARTHIKEYAN</t>
   </si>
   <si>
-    <t>K.RAJESH</t>
-  </si>
-  <si>
-    <t>P.Karthikesh</t>
-  </si>
-  <si>
-    <t>(952)464-1007</t>
+    <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>hari.radhakrishnan@qeagle.com</t>
+  </si>
+  <si>
+    <t>Testleaf$321</t>
+  </si>
+  <si>
+    <t>TypeOption</t>
+  </si>
+  <si>
+    <t>IndustryOption</t>
+  </si>
+  <si>
+    <t>PriorityOption</t>
+  </si>
+  <si>
+    <t>SLA options</t>
+  </si>
+  <si>
+    <t>Technology Partner</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>activeOption</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>VerifySnackMsg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -132,14 +175,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -418,171 +464,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:L4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" customWidth="1"/>
+    <col min="4" max="6" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="L2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="O2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" t="s">
-        <v>16</v>
+      <c r="Q2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" t="str">
+        <f>"Account """&amp;C2&amp;""" was saved."</f>
+        <v>Account "K.SANKARAKARTHIKEYAN" was saved.</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{26D59A2E-A2F9-4F23-9CB5-559BF6268C9F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>